--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>V1是动态生成ViewModel（按下按钮后生成），也是再ResourcesDictionary里面动态绑定。V2没有动态生成页面，所以也不需要动态绑定。整体结构是：MainWindow包含多个子控件。MainWindow的DataContext设为MainWindowViewModel。MainWindow.SubControl.DataContext = MainWindowViewModel.SubControlViewModel</t>
+  </si>
+  <si>
+    <t>制作Model部分的类结构图，并与Kyle Review</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C12:C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -477,6 +483,12 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="75">
       <c r="A4" s="1">

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,6 +63,34 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Root Cause</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>新建了BatteryType，但是在Create Battery的时候看不到新添加的选项，但是其实数据库里是有的.
+其他类似情况包括Create Channel的时候看不到新添加的Testers，Execute的时候看不到新添加的Batteries</t>
+  </si>
+  <si>
+    <t>Execute某个TR，关闭程序。重新打开，Commit这个TR，会因为找不到Assets而crash.</t>
+  </si>
+  <si>
+    <t>没有在DB中保存Assets连接。关闭程序再打开，会丢失Assets</t>
+  </si>
+  <si>
+    <t>在TR中加入Assets，更新database schema</t>
+  </si>
+  <si>
+    <t>cannot delete relatation??</t>
   </si>
 </sst>
 </file>
@@ -434,94 +458,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="65.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="116.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +62,6 @@
     <t>制作Model部分的类结构图，并与Kyle Review</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Close</t>
   </si>
   <si>
@@ -91,13 +88,26 @@
   </si>
   <si>
     <t>cannot delete relatation??</t>
+  </si>
+  <si>
+    <t>Add的时候没有加到runtime的model里。</t>
+  </si>
+  <si>
+    <t>initialize的时候将models传进来。Add的时候不仅将newm放到DB里去，也要放到models里面去。</t>
+  </si>
+  <si>
+    <t>Modify了某个BatteryType的Name，但是在其他View看不到这个修改，但是其实数据库里是已经修改了的.
+其他类似情况包括修改TesterName之后，在Channel的Tester项中看不到这个修改，等</t>
+  </si>
+  <si>
+    <t>Execute某个TR，Commit这个TR，会因为找不到Assets而crash.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +121,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +140,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,15 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -478,17 +473,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -533,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -544,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -566,32 +561,52 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>Execute某个TR，Commit这个TR，会因为找不到Assets而crash.</t>
+  </si>
+  <si>
+    <t>新建项目ID为0</t>
+  </si>
+  <si>
+    <t>model没有利用到SaveChanges的side effect</t>
+  </si>
+  <si>
+    <t>重启后Invalid不起效</t>
+  </si>
+  <si>
+    <t>如果Execute,Complete,Invalid连续执行，Invalid可正常工作。如果Commit之后关闭再重启程序，再进行Invalid，会失效</t>
+  </si>
+  <si>
+    <t>调整model赋值顺序，在savechanges之后赋值</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -607,6 +622,34 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,9 @@
     <t>制作Model部分的类结构图，并与Kyle Review</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
@@ -116,6 +119,15 @@
   </si>
   <si>
     <t>调整model赋值顺序，在savechanges之后赋值</t>
+  </si>
+  <si>
+    <t>Re-open</t>
+  </si>
+  <si>
+    <t>Commit没有改变Assets在m和vm中的状态（DB已改）</t>
+  </si>
+  <si>
+    <t>如果Execute,Complete连续执行，Assets的Status会正常变化。如果Execute之后关闭再重启程序，再进行Commit, Assets的Status不会变化</t>
   </si>
 </sst>
 </file>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -489,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -543,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -554,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75">
@@ -576,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -593,7 +605,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -601,19 +616,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -629,13 +644,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -646,10 +661,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>调整model赋值顺序，在savechanges之后赋值</t>
-  </si>
-  <si>
-    <t>Re-open</t>
   </si>
   <si>
     <t>Commit没有改变Assets在m和vm中的状态（DB已改）</t>
@@ -483,7 +480,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -625,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -675,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -676,6 +676,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Issues" sheetId="1" r:id="rId1"/>
+    <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,44 +115,88 @@
     <t>重启后Invalid不起效</t>
   </si>
   <si>
+    <t>调整model赋值顺序，在savechanges之后赋值</t>
+  </si>
+  <si>
+    <t>Commit没有改变Assets在m和vm中的状态（DB已改）</t>
+  </si>
+  <si>
+    <t>如果Execute,Complete连续执行，Assets的Status会正常变化。如果Execute之后关闭再重启程序，再进行Commit, Assets的Status不会变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawData import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawData display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果Execute,Complete,Invalid连续执行，Invalid可正常工作。如果Commit之后关闭再重启程序，再进行Invalid，会失效</t>
-  </si>
-  <si>
-    <t>调整model赋值顺序，在savechanges之后赋值</t>
-  </si>
-  <si>
-    <t>Commit没有改变Assets在m和vm中的状态（DB已改）</t>
-  </si>
-  <si>
-    <t>如果Execute,Complete连续执行，Assets的Status会正常变化。如果Execute之后关闭再重启程序，再进行Commit, Assets的Status不会变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Things on the top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,9 +222,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -193,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,24 +534,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -527,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -541,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90">
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -555,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -566,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -580,104 +638,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="1">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -689,25 +755,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在从DB取出m的时候，用了多个context。例如某个battery,在Batteries = dbContext.Batteries…的时候加载了一次，在programs.subprograms.testrecords.assignedbattery的时候又加载了一次。而这两次加载位于不同的context，所以即使他们的id相同，但他们其实是不同的instance。于是，BatteryVM绑定了model1的事件，而ProgramVM使得model2发出事件,并不会通知BatteryVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在同一个context中加载model，这样battery和programs.subprograms.testrecords.assignedbattery就是同一个instance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -743,8 +755,14 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,9 +112,6 @@
     <t>model没有利用到SaveChanges的side effect</t>
   </si>
   <si>
-    <t>重启后Invalid不起效</t>
-  </si>
-  <si>
     <t>调整model赋值顺序，在savechanges之后赋值</t>
   </si>
   <si>
@@ -149,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果Execute,Complete,Invalid连续执行，Invalid可正常工作。如果Commit之后关闭再重启程序，再进行Invalid，会失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Records</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +167,47 @@
   </si>
   <si>
     <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启后Invalid不起效（DB也未改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Create,Execute,Complete,Invalid连续执行，Invalid可正常工作。如果过程中关闭再重启程序，再继续进行到Invalid，会发现Invalid失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次Invalid不起效（DB也未改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Create,Execute,Complete,Invalid连续执行，Invalid可正常工作（添加了新的testrecord）。这时如果再次将新的testrecord Invalidate，会发现Invalidate失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看代码发现，subprogram订阅tr的status changed event，发生在以下情况：
+1. proeditVM.add-&gt;sub.constructe
+2. prosVM.edit||prosVM.saveas-&gt;sub.clone
+如果没有在UI上进行以上操作，就不会有订阅。而从DB中捞出model的时候，本身是不会带有订阅信息的。所以只有新动作产生的model会有符合预期的行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.从DB捞出model的时候，重新建立订阅关系
+2.不要使用事件来实现invalidate功能。直接在sub层面实现Invalidate.
+使用了方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在sub的响应函数中，添加新的tr，但是忘了订阅新tr的事件。所以不能响应新tr的事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新tr的时候，订阅新tr的事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +241,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +296,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,69 +651,80 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -658,20 +736,21 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -687,82 +766,114 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +888,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,13 +922,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -825,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -833,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -841,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -857,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -865,15 +971,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,41 @@
   </si>
   <si>
     <t>添加新tr的时候，订阅新tr的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在VM上无法运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏权限无法创建DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用app.manifest提升权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需询问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slice must be between 0.0 and 1.0.</t>
+  </si>
+  <si>
+    <t>若使用新DB则无法启动程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,6 +911,45 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,7 +962,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,6 +998,9 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>若使用新DB则无法启动程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Slice must be between 0.0 and 1.0.</t>
-  </si>
-  <si>
-    <t>若使用新DB则无法启动程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加条件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalExeAmount == 0。So percentage = x/0 = infinity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,7 +940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -939,15 +948,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
+      <c r="D18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,31 @@
   </si>
   <si>
     <t>TotalExeAmount == 0。So percentage = x/0 = infinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashBoard的legend区域不更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有VM中没有订阅事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 订阅TestRecords的collectionchanged事件。但是因为AllProgramsViewModel中操作的是Programs，所以TestRecords并不会被更新。所以还需要在更新P的时候更新T。（P和T一开始从DB取出时是一致的，但是修改了P后，T并不会自动更新）
+2. 订阅Programs的CollectionChanged事件，订阅pro.subs的cc事件，订阅pro.sub.first和pro.sub.second的cc事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个sub到原本的n个sub中，会发现出现了(n+1)*2个sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subs重复添加(db中没有重复)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID有点问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -966,6 +991,39 @@
       </c>
       <c r="F18" s="9" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
   </si>
   <si>
     <t>subs重复添加(db中没有重复)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID有点问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,14 +1012,6 @@
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,11 +268,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加一个sub到原本的n个sub中，会发现出现了(n+1)*2个sub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subs重复添加(db中没有重复)</t>
+    <t>Program的edit有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加的项目，id会变得不合预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit逻辑有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新整理edit逻辑.
+EditView中，获得的是subprograms的一个浅复制。OK的时候，给出的是一个不同的subprograms,它里面如果有旧的元素，那么就跟原来的元素是同一个实例。如果有新元素，就是一个空的。
+OK后，在ViewModel中，先处理DB。将旧元素从DB中移除，新元素添加到DB。这样新元素的ID就是可靠的。然后在model和viewmodel中做同样的添加删除处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +696,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,15 +1017,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -263,11 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 订阅TestRecords的collectionchanged事件。但是因为AllProgramsViewModel中操作的是Programs，所以TestRecords并不会被更新。所以还需要在更新P的时候更新T。（P和T一开始从DB取出时是一致的，但是修改了P后，T并不会自动更新）
-2. 订阅Programs的CollectionChanged事件，订阅pro.subs的cc事件，订阅pro.sub.first和pro.sub.second的cc事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Program的edit有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +282,11 @@
     <t>重新整理edit逻辑.
 EditView中，获得的是subprograms的一个浅复制。OK的时候，给出的是一个不同的subprograms,它里面如果有旧的元素，那么就跟原来的元素是同一个实例。如果有新元素，就是一个空的。
 OK后，在ViewModel中，先处理DB。将旧元素从DB中移除，新元素添加到DB。这样新元素的ID就是可靠的。然后在model和viewmodel中做同样的添加删除处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 订阅TestRecords的collectionchanged事件。但是因为AllProgramsViewModel中操作的是Programs，所以TestRecords并不会被更新。所以还需要在更新P的时候更新T。（P和T一开始从DB取出时是一致的，但是修改了P后，T并不会自动更新）
+2. 订阅Programs的CollectionChanged事件，订阅pro.subs的cc事件，订阅pro.sub.first和pro.sub.second的cc事件。订阅pro.subs.first||second.tr的statuschanged事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,7 +1003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -1022,19 +1022,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,14 @@
   <si>
     <t>1. 订阅TestRecords的collectionchanged事件。但是因为AllProgramsViewModel中操作的是Programs，所以TestRecords并不会被更新。所以还需要在更新P的时候更新T。（P和T一开始从DB取出时是一致的，但是修改了P后，T并不会自动更新）
 2. 订阅Programs的CollectionChanged事件，订阅pro.subs的cc事件，订阅pro.sub.first和pro.sub.second的cc事件。订阅pro.subs.first||second.tr的statuschanged事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend颜色错乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次运行时DashBoard不更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,6 +1043,28 @@
       </c>
       <c r="F20" s="9" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Issues" sheetId="1" r:id="rId1"/>
-    <sheet name="Features" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId1"/>
+    <sheet name="Issues" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,22 +296,41 @@
     <t>第一次运行时DashBoard不更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Upload to server</t>
+  </si>
+  <si>
+    <t>DB部署问题</t>
+  </si>
+  <si>
+    <t>目前DB是放在C盘的，这个有很大的隐患。例如有些用户没有C盘权限之类的。</t>
+  </si>
+  <si>
+    <t>启动时，检查配置文件。如果配置文件不存在，表示从未进行过配置。弹出窗口，让用户配置DB。用户选择使用已经存在的DB，或选择新建DB。程序按用户设定关联或创建DB，保存配置文件。</t>
+  </si>
+  <si>
+    <t>导入RawData</t>
+  </si>
+  <si>
+    <t>对于某些Test来说，RawData很大，无法放到一个文件中。例如aging test。因此，TestRecord要包含List&lt;RawData&gt;而不是单个RawData.
+Commit窗口的Browse按钮应该可以选择多个files。然后将这单个或多个file转换成rawdata，关联到TestRecord去。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,7 +420,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -415,7 +433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,7 +507,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -524,7 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,24 +716,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="27.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -753,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -769,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="105">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -785,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -799,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="105">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -815,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -823,7 +968,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="90">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -841,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -852,7 +997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -873,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -885,7 +1030,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -903,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="120">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -923,7 +1068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="135">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -943,7 +1088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -963,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -983,15 +1128,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1011,21 +1159,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" ht="135">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="F19" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="120">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1045,7 +1197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1059,12 +1211,45 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1072,130 +1257,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,16 +297,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Upload to server</t>
-  </si>
-  <si>
     <t>DB部署问题</t>
   </si>
   <si>
     <t>目前DB是放在C盘的，这个有很大的隐患。例如有些用户没有C盘权限之类的。</t>
-  </si>
-  <si>
-    <t>启动时，检查配置文件。如果配置文件不存在，表示从未进行过配置。弹出窗口，让用户配置DB。用户选择使用已经存在的DB，或选择新建DB。程序按用户设定关联或创建DB，保存配置文件。</t>
   </si>
   <si>
     <t>导入RawData</t>
@@ -314,13 +308,29 @@
   <si>
     <t>对于某些Test来说，RawData很大，无法放到一个文件中。例如aging test。因此，TestRecord要包含List&lt;RawData&gt;而不是单个RawData.
 Commit窗口的Browse按钮应该可以选择多个files。然后将这单个或多个file转换成rawdata，关联到TestRecord去。</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>Abandon</t>
+  </si>
+  <si>
+    <t>新创建的Assets在Dashboad这边不会变using</t>
+  </si>
+  <si>
+    <t>启动时，检查配置文件。如果配置文件不存在，表示从未进行过配置。弹出窗口，让用户配置DB。用户选择使用已经存在的DB，或选择新建DB。程序按用户设定关联或创建DB，保存配置文件。
+如果配置文件存在，则从配置文件中导入DB路径，然后按此路径使用DB</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/dotnet/framework/wpf/data/how-to-sort-and-group-data-using-a-view-in-xaml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +344,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -377,10 +394,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,8 +439,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,6 +461,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72265</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="2514600"/>
+          <a:ext cx="6758815" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -731,7 +814,7 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -742,114 +825,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>5</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14">
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14">
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
+      <c r="C10" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1222,18 +1315,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6" ht="90">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="90">
@@ -1241,15 +1338,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>https://docs.microsoft.com/en-us/dotnet/framework/wpf/data/how-to-sort-and-group-data-using-a-view-in-xaml</t>
+  </si>
+  <si>
+    <t>新的testrecord不会按降序添加</t>
+  </si>
+  <si>
+    <t>SubPrograms全屏，ProgramEditView拉宽，app拉宽</t>
+  </si>
+  <si>
+    <t>UI调整</t>
   </si>
 </sst>
 </file>
@@ -802,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -884,10 +893,10 @@
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -939,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1350,8 +1359,35 @@
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,10 +329,10 @@
     <t>新的testrecord不会按降序添加</t>
   </si>
   <si>
-    <t>SubPrograms全屏，ProgramEditView拉宽，app拉宽</t>
-  </si>
-  <si>
     <t>UI调整</t>
+  </si>
+  <si>
+    <t>大小：SubPrograms全屏，ProgramEditView拉宽，app拉宽</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -871,11 +871,11 @@
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
+      <c r="C5" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1379,10 +1379,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>84</v>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -332,7 +332,8 @@
     <t>UI调整</t>
   </si>
   <si>
-    <t>大小：SubPrograms全屏，ProgramEditView拉宽，app拉宽</t>
+    <t>大小：SubPrograms全屏，ProgramEditView拉宽，app拉宽
+布局：tab放到顶端</t>
   </si>
 </sst>
 </file>
@@ -951,7 +952,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E33" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1374,7 +1375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="1">
         <v>25</v>
       </c>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,18 @@
   <si>
     <t>大小：SubPrograms全屏，ProgramEditView拉宽，app拉宽
 布局：tab放到顶端</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Show achievement</t>
+  </si>
+  <si>
+    <t>Subprogram split</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -810,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -824,7 +836,7 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -835,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -846,7 +858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -857,7 +869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -867,8 +879,11 @@
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -879,7 +894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -890,7 +905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -904,7 +919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -915,7 +930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -926,7 +941,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -935,6 +950,22 @@
       </c>
       <c r="C10" s="13" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -951,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E32:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1393,6 +1424,9 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,30 +339,43 @@
     <t>Estimated Time</t>
   </si>
   <si>
-    <t>Show achievement</t>
-  </si>
-  <si>
     <t>Subprogram split</t>
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Show achievement，完成了多少个Program,收集了多少笔Raw Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw data并不直接放进数据库，而是关联起来就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,8 +485,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -497,8 +510,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>72265</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -538,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,6 +625,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,22 +836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="27.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -847,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -858,7 +873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -869,7 +884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -879,11 +894,11 @@
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -894,7 +909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -905,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -919,7 +934,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -930,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -941,7 +956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -952,7 +967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -960,12 +975,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -979,24 +994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105">
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1102,7 +1117,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="90">
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1131,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1164,7 +1179,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120">
+    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="135">
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="135">
+    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="120">
+    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1345,7 +1360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="90">
+    <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1374,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="90">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1406,7 +1421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1420,12 +1435,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
     <sheet name="Issues" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +359,23 @@
   </si>
   <si>
     <t>Cycle更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subprogram split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是用纯文字编辑的方式创建subprogram。这样有两个问题， 一是纯手工输入一段长字串不方便不规范，二是这样很难统计类似常用放电电流这样的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subprogram包含这样几个属性：充电温度，充电电流，放电温度，放电电流，测试个数。
+需要修改的部分有很多，subprogram template部分，subprogram部分，program都要改。已经改好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -974,13 +992,19 @@
       <c r="B11" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>87</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1422,16 +1446,18 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1465,6 +1491,24 @@
       </c>
       <c r="B31" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,11 @@
     <sheet name="Issues" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,22 +377,25 @@
     <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Populate Historic Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,8 +505,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -569,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -643,7 +645,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -678,7 +679,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,22 +854,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -902,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -916,7 +916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -938,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -952,7 +952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -963,7 +963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -985,7 +985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -996,7 +996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1005,6 +1005,17 @@
       </c>
       <c r="C12" s="13" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1018,24 +1029,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1071,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="105">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="105">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1133,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1141,7 +1152,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="90">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1203,7 +1214,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="120">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="135">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="135">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="120">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1395,7 +1406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="90">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="90">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1469,7 +1480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1485,7 +1496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="60">
       <c r="A32" s="9">
         <v>30</v>
       </c>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Populate Historic Data</t>
+  </si>
+  <si>
+    <t>xceed.wpf.toolkit.DateTimePicker</t>
   </si>
 </sst>
 </file>
@@ -857,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1011,11 +1014,11 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1481,11 +1484,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="10" t="s">
         <v>90</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30">

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>xceed.wpf.toolkit.DateTimePicker</t>
+  </si>
+  <si>
+    <t>目前来说只能放到本地目录，因为OpenFileDialog看不到网络驱动器</t>
+  </si>
+  <si>
+    <t>历史操作还没实现</t>
   </si>
 </sst>
 </file>
@@ -860,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1020,6 +1026,9 @@
       <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="E13" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1315,7 +1324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="135">
+    <row r="19" spans="1:10" ht="135">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="120">
+    <row r="20" spans="1:10" ht="120">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="90">
+    <row r="23" spans="1:10" ht="90">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="90">
+    <row r="24" spans="1:10" ht="90">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1499,15 +1508,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" ht="30">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60">
+    <row r="32" spans="1:10" ht="60">
       <c r="A32" s="9">
         <v>30</v>
       </c>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用app.manifest提升权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raw data并不直接放进数据库，而是关联起来就好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cycle更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +376,34 @@
     <t>xceed.wpf.toolkit.DateTimePicker</t>
   </si>
   <si>
-    <t>目前来说只能放到本地目录，因为OpenFileDialog看不到网络驱动器</t>
-  </si>
-  <si>
     <t>历史操作还没实现</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>使用app.manifest提升权限(Fixed 21之后，不再需要此权限)</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>移除byte[] binarydata</t>
+  </si>
+  <si>
+    <t>Raw data并不直接放进数据库，而是关联文件路径就好</t>
+  </si>
+  <si>
+    <t>OpenFileDialog看不到网络驱动器</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/32790495/mapped-drives-not-visible-on-open-dialog</t>
+  </si>
+  <si>
+    <t>移除权限就好了</t>
+  </si>
+  <si>
+    <t>显示有点小问题</t>
   </si>
 </sst>
 </file>
@@ -417,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,7 +487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +534,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -866,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -897,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -905,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>33</v>
@@ -922,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -933,7 +962,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -955,10 +984,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -980,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -991,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -999,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -1010,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1021,13 +1050,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1042,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1305,255 +1334,281 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="135">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="135">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="90">
+      <c r="E22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="90">
       <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="90">
+    <row r="24" spans="1:8" ht="90">
       <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="30">
+      <c r="H29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45">
       <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60">
       <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>显示有点小问题</t>
+  </si>
+  <si>
+    <t>用strikethrough代替gray</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +544,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -933,11 +939,11 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -969,11 +975,11 @@
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
+      <c r="C6" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1071,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1603,6 +1609,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -902,7 +902,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -950,7 +950,7 @@
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,17 @@
   </si>
   <si>
     <t>用strikethrough代替gray</t>
+  </si>
+  <si>
+    <t>TR的ProStr和SubStr没有赋值</t>
+  </si>
+  <si>
+    <t>之前没用到，所以没有做也没发现</t>
+  </si>
+  <si>
+    <t>TR的创建，是在Create或SaveAs Program的时候完成的。具体来说是在ProgramEditView里面。
+Create：Add的时候，通过template创建TR，此时应将SubStr赋值。OK的时候，对ProStr赋值。
+SaveAs: Clone的时候对SubStr赋值。OK的时候，对ProStr赋值。</t>
   </si>
 </sst>
 </file>
@@ -901,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1077,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1620,6 +1631,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="35" spans="1:6" ht="90">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,53 @@
         <a:xfrm>
           <a:off x="647700" y="2514600"/>
           <a:ext cx="6758815" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3733800" y="1333500"/>
+          <a:ext cx="5067300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -912,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -964,8 +1011,8 @@
       <c r="B4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
+      <c r="C4" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>88</v>
@@ -1011,11 +1058,11 @@
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
+      <c r="C8" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1090,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E36:E37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1632,17 +1679,21 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="90">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="10" t="s">
         <v>110</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -403,9 +403,6 @@
     <t>移除权限就好了</t>
   </si>
   <si>
-    <t>显示有点小问题</t>
-  </si>
-  <si>
     <t>用strikethrough代替gray</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
     <t>TR的创建，是在Create或SaveAs Program的时候完成的。具体来说是在ProgramEditView里面。
 Create：Add的时候，通过template创建TR，此时应将SubStr赋值。OK的时候，对ProStr赋值。
 SaveAs: Clone的时候对SubStr赋值。OK的时候，对ProStr赋值。</t>
+  </si>
+  <si>
+    <t>显示有点小问题，设成Mode=OneWayToSource就好了</t>
   </si>
 </sst>
 </file>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1135,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1411,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="135">
+    <row r="18" spans="1:10" ht="135">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="120">
+    <row r="19" spans="1:10" ht="120">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <v>14</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="90">
+    <row r="23" spans="1:10" ht="90">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90">
+    <row r="24" spans="1:10" ht="90">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:10" ht="30">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1600,14 +1600,14 @@
       <c r="E29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45">
+      <c r="J29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60">
+    <row r="32" spans="1:10" ht="60">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1683,14 +1683,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>2</v>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,33 @@
   </si>
   <si>
     <t>显示有点小问题，设成Mode=OneWayToSource就好了</t>
+  </si>
+  <si>
+    <t>Progress Bar</t>
+  </si>
+  <si>
+    <t>Sub/Test Status Color</t>
+  </si>
+  <si>
+    <t>Color Pattern</t>
+  </si>
+  <si>
+    <t>Global Resources</t>
+  </si>
+  <si>
+    <t>Chamber Reusability</t>
+  </si>
+  <si>
+    <t>Program Filter</t>
+  </si>
+  <si>
+    <t>Shape.Fill和Control.Background都是Brush类型，在app.xmal中建立resources</t>
+  </si>
+  <si>
+    <t>https://coolors.co</t>
+  </si>
+  <si>
+    <t>Dashboard Output  arrange</t>
   </si>
 </sst>
 </file>
@@ -501,7 +528,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,9 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,6 +581,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -577,16 +607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>72265</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>177040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -604,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="647700" y="2514600"/>
-          <a:ext cx="6758815" cy="5095875"/>
+          <a:off x="13354050" y="1085850"/>
+          <a:ext cx="6758815" cy="5105400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -971,7 +1001,7 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -981,8 +1011,28 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -992,8 +1042,28 @@
       <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1004,7 +1074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:23">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1014,11 +1084,30 @@
       <c r="C4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1029,18 +1118,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:23">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:23">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1050,11 +1139,30 @@
       <c r="C7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1065,7 +1173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:23">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1076,7 +1184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:23">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1087,7 +1195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:23">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1098,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:23">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1109,7 +1217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:23">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1119,17 +1227,163 @@
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="19" t="s">
         <v>97</v>
       </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="D18:W18"/>
+    <mergeCell ref="D17:S17"/>
+    <mergeCell ref="D13:W13"/>
+    <mergeCell ref="D7:W7"/>
+    <mergeCell ref="D1:W1"/>
+    <mergeCell ref="D2:W2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1137,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1398,16 +1652,16 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1495,22 +1749,22 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1657,7 +1911,7 @@
         <v>103</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E33" s="10" t="s">

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>Dashboard Output  arrange</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/dotnet/framework/wpf/controls/how-to-create-listviewitems-with-a-checkbox?view=netframework-4.8
+https://stackoverflow.com/questions/18626696/listview-itemtemplate-100-width</t>
   </si>
 </sst>
 </file>
@@ -528,7 +532,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,6 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,8 +625,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>177040</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,7 +1000,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1250,16 +1260,38 @@
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="37.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="4">
@@ -1368,10 +1400,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="D4:W4"/>
     <mergeCell ref="D18:W18"/>
     <mergeCell ref="D17:S17"/>
+    <mergeCell ref="D14:S14"/>
     <mergeCell ref="D13:W13"/>
     <mergeCell ref="D7:W7"/>
     <mergeCell ref="D1:W1"/>
@@ -1381,9 +1414,10 @@
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D17" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3" display="https://docs.microsoft.com/en-us/dotnet/framework/wpf/controls/how-to-create-listviewitems-with-a-checkbox?view=netframework-4.8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1297,10 +1297,10 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cycle更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Subprogram split</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,6 +445,30 @@
   <si>
     <t>https://docs.microsoft.com/en-us/dotnet/framework/wpf/controls/how-to-create-listviewitems-with-a-checkbox?view=netframework-4.8
 https://stackoverflow.com/questions/18626696/listview-itemtemplate-100-width</t>
+  </si>
+  <si>
+    <t>新的assetusagerecord不会显示</t>
+  </si>
+  <si>
+    <t>Replace AssetUsageRecord.Status with AssetUseCount</t>
+  </si>
+  <si>
+    <t>Cycle count 不更新</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Commit的时候，将new cycle告诉test record. 然后battery.cycle+=newcycle;</t>
+  </si>
+  <si>
+    <t>没有研究root cause，采取一个workaround: 只有Programs降序排列</t>
+  </si>
+  <si>
+    <t>Record倒叙显示</t>
+  </si>
+  <si>
+    <t>用progress bar</t>
   </si>
 </sst>
 </file>
@@ -587,13 +607,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -999,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1021,26 +1041,26 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="14">
@@ -1052,26 +1072,26 @@
       <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="14">
@@ -1094,28 +1114,28 @@
       <c r="C4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="14">
@@ -1149,28 +1169,28 @@
       <c r="C7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="14">
@@ -1232,46 +1252,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -1288,17 +1308,17 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>13</v>
@@ -1309,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>77</v>
@@ -1320,95 +1340,114 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="D17" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="D18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D1:W1"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="D19:S19"/>
     <mergeCell ref="D4:W4"/>
     <mergeCell ref="D18:W18"/>
     <mergeCell ref="D17:S17"/>
     <mergeCell ref="D14:S14"/>
     <mergeCell ref="D13:W13"/>
     <mergeCell ref="D7:W7"/>
-    <mergeCell ref="D1:W1"/>
-    <mergeCell ref="D2:W2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1423,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1696,7 +1735,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
@@ -1796,10 +1835,10 @@
         <v>55</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="90">
@@ -1844,12 +1883,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>82</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -1886,13 +1933,13 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
@@ -1900,23 +1947,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1">
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>90</v>
+      <c r="B31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60">
@@ -1924,64 +1979,94 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="9">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
+    <row r="34" spans="1:8">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="90">
+      <c r="B34" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90">
       <c r="A35" s="9">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,27 +465,36 @@
     <t>没有研究root cause，采取一个workaround: 只有Programs降序排列</t>
   </si>
   <si>
-    <t>Record倒叙显示</t>
-  </si>
-  <si>
     <t>用progress bar</t>
+  </si>
+  <si>
+    <t>Record倒序显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commit或Invalid的时候，输入Comment。Commit的时候赋值，Invalid的时候Append.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -620,8 +629,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -733,7 +742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -807,6 +816,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -841,6 +851,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,22 +1027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="27.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1073,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1093,7 +1104,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1137,7 +1148,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1192,7 +1203,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1280,7 +1291,7 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="37.5" customHeight="1">
+    <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1313,7 +1324,7 @@
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1364,7 +1375,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1397,7 +1408,7 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1426,7 +1437,7 @@
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1461,24 +1472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1514,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="105">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105">
+    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1584,7 +1595,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="90">
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1613,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1646,7 +1657,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120">
+    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="135">
+    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1738,7 +1749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="135">
+    <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1776,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="120">
+    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1810,7 +1821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>14</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="90">
+    <row r="23" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="90">
+    <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1875,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1899,7 +1910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30">
+    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1915,15 +1926,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
+    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1942,7 +1961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1958,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1974,7 +1993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60">
+    <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -2010,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>32</v>
       </c>
@@ -2024,10 +2043,10 @@
         <v>99</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -2045,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2061,12 +2080,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,22 +479,43 @@
     <t>Fixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Commit也要显示ProgramStr和SubStr</t>
+  </si>
+  <si>
+    <t>Program加上BatteryType</t>
+  </si>
+  <si>
+    <t>新添加的Program，再进行Save As时，Battery Type看不到（Batteries那边没有问题，可以对比一下）</t>
+  </si>
+  <si>
+    <t>model这边，Program加上BatteryType这个属性
+ViewModel这边，ProgramEditViewModel加上对应项目以供编辑；ProgramViewModel加上对应项目以供显示
+View这边，ProgramView和AllProgramViewModel加上对应UI用以显示
+Populator那边作相应的修改。</t>
+  </si>
+  <si>
+    <t>model加上loop属性。View Model加上wraper。View加上UI。Populator作相应修改。</t>
+  </si>
+  <si>
+    <t>Sub Program加上Loop选项</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -561,43 +582,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,18 +596,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,10 +614,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -742,7 +759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +833,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -851,7 +867,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,424 +1042,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="27.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:23">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+    <row r="6" spans="1:23">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+    <row r="7" spans="1:23">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+    <row r="9" spans="1:23">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+    <row r="10" spans="1:23">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row r="12" spans="1:23">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row r="13" spans="1:23">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-    </row>
-    <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row r="16" spans="1:23">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+    <row r="17" spans="1:23">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1472,44 +1487,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="46.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="46.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1541,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="105">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="105">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1587,505 +1602,548 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="90">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" ht="75">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" ht="120">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" ht="135">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
+    <row r="16" spans="1:7">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
+    <row r="17" spans="1:10" ht="30">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+    <row r="18" spans="1:10" ht="135">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row r="19" spans="1:10" ht="120">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
+    <row r="22" spans="1:10">
+      <c r="A22" s="18">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="23" spans="1:10" ht="90">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+    <row r="24" spans="1:10" ht="90">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+    <row r="27" spans="1:10" ht="30">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
+    <row r="32" spans="1:10" ht="60">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
+    <row r="34" spans="1:8">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
+    <row r="35" spans="1:8" ht="90">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="17" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="90">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,10 +495,11 @@
 Populator那边作相应的修改。</t>
   </si>
   <si>
-    <t>model加上loop属性。View Model加上wraper。View加上UI。Populator作相应修改。</t>
-  </si>
-  <si>
     <t>Sub Program加上Loop选项</t>
+  </si>
+  <si>
+    <t>model加上loop属性。View Model加上wraper。View加上UI。Populator作相应修改。
+ProgramEditView这边还得修改</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1047,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="D14" sqref="D14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1490,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1908,6 +1909,9 @@
       <c r="B25" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="30">
       <c r="A26" s="3">
@@ -2086,6 +2090,9 @@
       <c r="B36" s="17" t="s">
         <v>120</v>
       </c>
+      <c r="F36" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7">
@@ -2094,6 +2101,9 @@
       <c r="B37" s="17" t="s">
         <v>122</v>
       </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
@@ -2102,6 +2112,9 @@
       <c r="B38" s="17" t="s">
         <v>127</v>
       </c>
+      <c r="F38" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
@@ -2109,6 +2122,9 @@
       </c>
       <c r="B39" s="17" t="s">
         <v>130</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="90">
@@ -2134,16 +2150,24 @@
       <c r="B41" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="30">
-      <c r="A42" s="7">
+      <c r="F41" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>134</v>
+      <c r="F42" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,13 @@
   <si>
     <t>model加上loop属性。View Model加上wraper。View加上UI。Populator作相应修改。
 ProgramEditView这边还得修改</t>
+  </si>
+  <si>
+    <t>Sub Program Template property update</t>
+  </si>
+  <si>
+    <t>Basic: Temprature, CurrentInPercentage, CurrentInmA, CurrentUnit
+Sub Template: ChargeTemp, DischargeTemp, ChargeCurrentUnit, DischargeCurrentUnit, ChargeCurrentValue, DischargeCurrentValue</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2170,6 +2177,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43" spans="1:8" ht="75">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,33 @@
   <si>
     <t>model加上loop属性。View Model加上wraper。View加上UI。Populator作相应修改。
 ProgramEditView这边还得修改</t>
+  </si>
+  <si>
+    <t>在Program/Sub上加上StartTime和EndTime</t>
+  </si>
+  <si>
+    <t>难点是如何更新。流程是，提交tr的时间，做出一些判断之后，更新sub/pro的时间。这个流程，该在哪个层完成呢？
+首先，判断在哪做？这是属于业务逻辑，应该是model那边做。那怎么触发这个判断？用VM中的TR.StartTime = startTime. 的set访问器吗？可是tr访问器里怎么获得sub和pro呢？访问器不能带参数啊。
+换个思考方向，从业务逻辑这边来考虑。对于业务逻辑来说，是修改tr的时候一并修改了sub和pro。而tr看不到sub和pro。所以只能是呼叫这个业务逻辑的一方，（也就是viewmodel），将sub和pro传给tr。
+pro和sub被修改后如何更新UI，就是老办法INPC了</t>
+  </si>
+  <si>
+    <t>Duration不更新</t>
+  </si>
+  <si>
+    <t>Commit之后，Duration没有更新。但是如果重启软件，则可以看到正确值</t>
+  </si>
+  <si>
+    <t>Duration是viewmodel层的独立属性，只有get 没有set. CompleteTime更新后，并不会自动调用OnPropertyChanged("Duration")。所以UI也不会通过get来获取新的Duration</t>
+  </si>
+  <si>
+    <t>在合适的地方加上OnPropertyChanged("Duration")。这个合适的地方，选了这里
+        private void _program_PropertyChanged(object sender, PropertyChangedEventArgs e)
+        {
+            OnPropertyChanged(e.PropertyName);
+            if(e.PropertyName == "CompleteTime")
+                OnPropertyChanged("Duration");
+        }</t>
   </si>
 </sst>
 </file>
@@ -606,15 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,6 +662,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1068,26 +1095,26 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="4">
@@ -1099,26 +1126,26 @@
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4">
@@ -1141,28 +1168,28 @@
       <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4">
@@ -1196,28 +1223,28 @@
       <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4">
@@ -1284,28 +1311,28 @@
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1">
       <c r="A14" s="1">
@@ -1317,24 +1344,24 @@
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -1372,24 +1399,24 @@
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1">
@@ -1401,28 +1428,28 @@
       <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1">
@@ -1434,24 +1461,24 @@
       <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
@@ -1489,19 +1516,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="46.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1526,103 +1553,103 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="90">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="90">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1633,7 +1660,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1644,14 +1671,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1665,26 +1692,26 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1695,16 +1722,16 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1715,16 +1742,16 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1735,16 +1762,16 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1752,16 +1779,16 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1769,16 +1796,16 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1789,14 +1816,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1807,16 +1834,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1827,12 +1854,12 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="3" t="s">
         <v>68</v>
       </c>
@@ -1841,7 +1868,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1849,22 +1876,22 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1872,14 +1899,14 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1890,12 +1917,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1906,7 +1933,7 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -1917,12 +1944,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1933,12 +1960,12 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1949,12 +1976,12 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1965,12 +1992,12 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1984,12 +2011,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2000,12 +2027,12 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2016,14 +2043,14 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2034,14 +2061,14 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="20" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2049,16 +2076,16 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
         <v>99</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -2069,14 +2096,14 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -2087,7 +2114,7 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2098,7 +2125,7 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -2109,7 +2136,7 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>127</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2120,7 +2147,7 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -2131,12 +2158,12 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2147,7 +2174,7 @@
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -2158,15 +2185,51 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
         <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="165">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="165">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,20 @@
             if(e.PropertyName == "CompleteTime")
                 OnPropertyChanged("Duration");
         }</t>
+  </si>
+  <si>
+    <t>Save As一个新的Program（刚刚create 出来或者save as 出来的），没有BatteryType</t>
+  </si>
+  <si>
+    <t>EstimatedTime不更新</t>
+  </si>
+  <si>
+    <t>ET是VM直接拿db里面的数据算出来的，在初始化的时候算过一次，之后即使DB的数据变了，也不会通知VM更新</t>
+  </si>
+  <si>
+    <t>方案1：VM在commit的时候强行更新所有Pro的ET。简单粗暴，但不是特别合理。如果Pro特别多呢？会有性能问题。
+方案2：给program model加上et属性，vm从m获得et属性。Commit的时候更新m的et，从而更新vm和v。P.commit需要pros，从vm传下去给m。（参考41）
+采用方案2</t>
   </si>
 </sst>
 </file>
@@ -610,7 +624,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,26 +1112,26 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="4">
@@ -1126,26 +1143,26 @@
       <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4">
@@ -1168,28 +1185,28 @@
       <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4">
@@ -1223,28 +1240,28 @@
       <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4">
@@ -1311,28 +1328,28 @@
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1">
       <c r="A14" s="1">
@@ -1344,24 +1361,24 @@
       <c r="C14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -1399,24 +1416,24 @@
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1">
@@ -1428,28 +1445,28 @@
       <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1">
@@ -1461,24 +1478,24 @@
       <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
@@ -1516,19 +1533,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="46.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="15" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1553,103 +1570,103 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="90">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="90">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1660,7 +1677,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1671,14 +1688,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1692,26 +1709,26 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1722,16 +1739,16 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1742,16 +1759,16 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1762,16 +1779,16 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1779,16 +1796,16 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1796,16 +1813,16 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1816,14 +1833,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1834,16 +1851,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1854,12 +1871,12 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3" t="s">
         <v>68</v>
       </c>
@@ -1868,7 +1885,7 @@
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1876,22 +1893,22 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1899,14 +1916,14 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1917,12 +1934,12 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1933,7 +1950,7 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -1944,12 +1961,12 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1960,12 +1977,12 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1976,12 +1993,12 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1992,12 +2009,12 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2011,12 +2028,12 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2027,12 +2044,12 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
         <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2043,14 +2060,14 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2061,14 +2078,14 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2076,16 +2093,16 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
         <v>99</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -2096,14 +2113,14 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -2114,7 +2131,7 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2125,7 +2142,7 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -2136,7 +2153,7 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>127</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2147,7 +2164,7 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -2158,12 +2175,12 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2174,7 +2191,7 @@
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -2185,12 +2202,12 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
         <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2201,12 +2218,12 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2217,20 +2234,48 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="105">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -540,7 +540,8 @@
   <si>
     <t>方案1：VM在commit的时候强行更新所有Pro的ET。简单粗暴，但不是特别合理。如果Pro特别多呢？会有性能问题。
 方案2：给program model加上et属性，vm从m获得et属性。Commit的时候更新m的et，从而更新vm和v。P.commit需要pros，从vm传下去给m。（参考41）
-采用方案2</t>
+方案3，即不在db解决问题，也不在model解决问题，而仅仅在vm层解决问题。把et理解为纯ui，跟业务逻辑无关。
+方案2跟方案3的区别在于，方案2使得et存在于model层，方案3的model层里没有et。方案选择的关键在于如何看待et。目前的需求来说，et只是UI显示用一下，没有其他用途，所以选择方案3</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -2261,21 +2262,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="105">
-      <c r="A46" s="7">
+    <row r="46" spans="1:8" ht="180">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>13</v>
+      <c r="F46" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Issue List.xlsx
+++ b/Doc/Issue List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>Delete operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,9 +523,6 @@
             if(e.PropertyName == "CompleteTime")
                 OnPropertyChanged("Duration");
         }</t>
-  </si>
-  <si>
-    <t>Save As一个新的Program（刚刚create 出来或者save as 出来的），没有BatteryType</t>
   </si>
   <si>
     <t>EstimatedTime不更新</t>
@@ -625,7 +618,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1113,67 +1103,67 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1181,43 +1171,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1228,7 +1218,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1236,43 +1226,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1280,10 +1270,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1291,21 +1281,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1313,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1324,62 +1314,62 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -1390,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1401,10 +1391,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1412,98 +1402,98 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1534,19 +1524,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="46.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1571,103 +1561,103 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="90">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="90">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1678,7 +1668,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1689,14 +1679,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1710,26 +1700,26 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1740,109 +1730,109 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="135">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16" t="s">
-        <v>99</v>
+      <c r="B16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="135">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>70</v>
+      <c r="E18" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2</v>
@@ -1852,80 +1842,80 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>72</v>
+      <c r="B21" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>97</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="90">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>80</v>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2</v>
@@ -1935,13 +1925,13 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>2</v>
@@ -1951,8 +1941,8 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>79</v>
+      <c r="B25" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
@@ -1962,13 +1952,13 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>125</v>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>2</v>
@@ -1978,13 +1968,13 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2</v>
@@ -1994,48 +1984,48 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>95</v>
+      <c r="B29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>100</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>2</v>
@@ -2045,13 +2035,13 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>2</v>
@@ -2061,68 +2051,68 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16" t="s">
-        <v>99</v>
+      <c r="B34" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="90">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>2</v>
@@ -2132,8 +2122,8 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>120</v>
+      <c r="B36" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>13</v>
@@ -2143,8 +2133,8 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>122</v>
+      <c r="B37" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>13</v>
@@ -2154,8 +2144,8 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>127</v>
+      <c r="B38" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>13</v>
@@ -2165,8 +2155,8 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>130</v>
+      <c r="B39" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>13</v>
@@ -2176,13 +2166,13 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>133</v>
+      <c r="B40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>2</v>
@@ -2192,8 +2182,8 @@
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>132</v>
+      <c r="B41" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>13</v>
@@ -2203,13 +2193,13 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>2</v>
@@ -2219,13 +2209,13 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>2</v>
@@ -2235,48 +2225,37 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30">
-      <c r="A45" s="7">
+    <row r="45" spans="1:8" ht="180">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="180">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
